--- a/_p_ADAPTOmics/_I_Desiree/presentations/supplemets/Supplementary File 2 - VisualisationOrder.xlsx
+++ b/_p_ADAPTOmics/_I_Desiree/presentations/supplemets/Supplementary File 2 - VisualisationOrder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majaz\Desktop\CustomNet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majaz\Desktop\GitHub\multiOmics-integration\_p_ADAPTOmics\_I_Desiree\presentations\supplemets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BA2166-A55F-488F-ABAB-B45002F91C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46F6A03-63C3-4748-9E26-260090DF85BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16155" yWindow="720" windowWidth="20910" windowHeight="18615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="-120" windowWidth="29580" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Order for dynamic visualisation</t>
   </si>
@@ -67,6 +67,72 @@
   </si>
   <si>
     <t>W07.txt</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>droght 1 day</t>
+  </si>
+  <si>
+    <t>droght 7 days</t>
+  </si>
+  <si>
+    <t>heat 1 day</t>
+  </si>
+  <si>
+    <t>heat 7 days</t>
+  </si>
+  <si>
+    <t>heat 8 days</t>
+  </si>
+  <si>
+    <t>heat 14 days</t>
+  </si>
+  <si>
+    <t>heat 8 days + drought 1 day</t>
+  </si>
+  <si>
+    <t>heat 14 days + drought 7 days</t>
+  </si>
+  <si>
+    <t>waterelogging 1 day</t>
+  </si>
+  <si>
+    <t>waterelogging 7 days</t>
+  </si>
+  <si>
+    <t>alternativeNaming</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>H07</t>
+  </si>
+  <si>
+    <t>H08</t>
+  </si>
+  <si>
+    <t>HD01</t>
+  </si>
+  <si>
+    <t>HD07</t>
+  </si>
+  <si>
+    <t>W01</t>
+  </si>
+  <si>
+    <t>W07</t>
+  </si>
+  <si>
+    <t>H14</t>
   </si>
 </sst>
 </file>
@@ -164,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -184,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,14 +550,16 @@
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -498,8 +569,14 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -509,8 +586,14 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -520,8 +603,14 @@
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -531,8 +620,14 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -542,8 +637,14 @@
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -553,8 +654,14 @@
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -564,8 +671,14 @@
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -575,8 +688,14 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -586,8 +705,14 @@
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -597,8 +722,14 @@
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -607,6 +738,12 @@
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
